--- a/results/mp/logistic/corona/confidence/84/0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>crude</t>
   </si>
   <si>
     <t>sc</t>
@@ -64,118 +61,109 @@
     <t>no</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
   </si>
 </sst>
 </file>
@@ -533,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7226027397260274</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8913043478260869</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,7 +690,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5135135135135135</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -720,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,37 +740,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>19</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4021164021164021</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>348</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L7">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L7">
-        <v>96</v>
-      </c>
       <c r="M7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.312015503875969</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8302872062663186</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1677852348993289</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,119 +908,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.793733681462141</v>
+      </c>
+      <c r="L10">
+        <v>304</v>
+      </c>
+      <c r="M10">
+        <v>304</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8113207547169812</v>
-      </c>
-      <c r="L9">
-        <v>86</v>
-      </c>
-      <c r="M9">
-        <v>86</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1027777777777778</v>
-      </c>
-      <c r="C10">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>323</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.003687172520861634</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>0.39</v>
-      </c>
-      <c r="F11">
-        <v>0.61</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5134</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,12 +984,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.7926829268292683</v>
@@ -1075,16 +1015,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1036,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.76875</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,47 +1088,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>0.7578125</v>
+      </c>
+      <c r="L16">
+        <v>97</v>
+      </c>
+      <c r="M16">
+        <v>97</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L16">
-        <v>46</v>
-      </c>
-      <c r="M16">
-        <v>46</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,12 +1270,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.64</v>
@@ -1361,16 +1301,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6285714285714286</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6279069767441861</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5941176470588235</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5774058577405857</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L28">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,12 +1426,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>0.5757575757575758</v>
@@ -1517,16 +1457,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5638297872340425</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5627118644067797</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L31">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.449438202247191</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.392156862745098</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1694,59 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K37">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38">
-        <v>0.01669449081803005</v>
-      </c>
-      <c r="L38">
-        <v>20</v>
-      </c>
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>0.91</v>
-      </c>
-      <c r="O38">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1178</v>
       </c>
     </row>
   </sheetData>
